--- a/docs/Finance/templates/CompanyCode.xlsx
+++ b/docs/Finance/templates/CompanyCode.xlsx
@@ -361,79 +361,79 @@
     </row>
     <row r="5">
       <c r="M5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Y5&") VALUES ("&AK5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Y5&") VALUES ("&AK5&");" ]]></f>
       </c>
       <c r="N5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
       </c>
       <c r="Z5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="AA5">
-        <f><![CDATA[Z5&IF(AND(Z5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  Z5&IF(AND(Z5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="AB5">
-        <f><![CDATA[AA5&IF(AND(AA5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  AA5&IF(AND(AA5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="AD5">
-        <f><![CDATA[AC5&IF(AND(AC5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  AC5&IF(AND(AC5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="AE5">
-        <f><![CDATA[AD5&IF(AND(AD5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  AD5&IF(AND(AD5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="AF5">
-        <f><![CDATA[AE5&IF(AND(AE5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  AE5&IF(AND(AE5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="AG5">
-        <f><![CDATA[AF5&IF(AND(AF5<>"",H5<>""),", ","")&IF(H5<>"","'"&H5&"'","")]]></f>
+        <f><![CDATA[  AF5&IF(AND(AF5<>"",H5<>""),", ","")&IF(H5<>"", "'"&H5&"'" ,"") ]]></f>
       </c>
       <c r="AH5">
-        <f><![CDATA[AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"","'"&I5&"'","")]]></f>
+        <f><![CDATA[  AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
       </c>
       <c r="AI5">
-        <f><![CDATA[AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"","'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="AJ5">
-        <f><![CDATA[AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"","'"&K5&"'","")]]></f>
+        <f><![CDATA[  AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
       </c>
       <c r="AK5">
-        <f><![CDATA[AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"","'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"", "'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -525,43 +525,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -653,43 +653,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -781,43 +781,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -999,103 +999,103 @@
     </row>
     <row r="5">
       <c r="Q5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AG5&") VALUES ("&AW5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AG5&") VALUES ("&AW5&");" ]]></f>
       </c>
       <c r="R5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="Z5">
-        <f><![CDATA[Y5&IF(AND(Y5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  Y5&IF(AND(Y5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="AA5">
-        <f><![CDATA[Z5&IF(AND(Z5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  Z5&IF(AND(Z5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="AB5">
-        <f><![CDATA[AA5&IF(AND(AA5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","")]]></f>
+        <f><![CDATA[  AA5&IF(AND(AA5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
       </c>
       <c r="AD5">
-        <f><![CDATA[AC5&IF(AND(AC5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","")]]></f>
+        <f><![CDATA[  AC5&IF(AND(AC5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
       </c>
       <c r="AE5">
-        <f><![CDATA[AD5&IF(AND(AD5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","")]]></f>
+        <f><![CDATA[  AD5&IF(AND(AD5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","") ]]></f>
       </c>
       <c r="AF5">
-        <f><![CDATA[AE5&IF(AND(AE5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","")]]></f>
+        <f><![CDATA[  AE5&IF(AND(AE5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","") ]]></f>
       </c>
       <c r="AG5">
-        <f><![CDATA[AF5&IF(AND(AF5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","")]]></f>
+        <f><![CDATA[  AF5&IF(AND(AF5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","") ]]></f>
       </c>
       <c r="AH5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="AI5">
-        <f><![CDATA[AH5&IF(AND(AH5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  AH5&IF(AND(AH5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="AJ5">
-        <f><![CDATA[AI5&IF(AND(AI5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  AI5&IF(AND(AI5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="AK5">
-        <f><![CDATA[AJ5&IF(AND(AJ5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="AL5">
-        <f>AK5&amp;IF(AND(AK5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"")</f>
+        <f>  AK5&amp;IF(AND(AK5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"") </f>
       </c>
       <c r="AM5">
-        <f>AL5&amp;IF(AND(AL5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"")</f>
+        <f>  AL5&amp;IF(AND(AL5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"") </f>
       </c>
       <c r="AN5">
-        <f>AM5&amp;IF(AND(AM5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"")</f>
+        <f>  AM5&amp;IF(AND(AM5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"") </f>
       </c>
       <c r="AO5">
-        <f>AN5&amp;IF(AND(AN5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"")</f>
+        <f>  AN5&amp;IF(AND(AN5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"") </f>
       </c>
       <c r="AP5">
-        <f>AO5&amp;IF(AND(AO5&lt;&gt;"",I5&lt;&gt;""),", ","")&amp;IF(I5&lt;&gt;"",I5,"")</f>
+        <f>  AO5&amp;IF(AND(AO5&lt;&gt;"",I5&lt;&gt;""),", ","")&amp;IF(I5&lt;&gt;"",I5,"") </f>
       </c>
       <c r="AQ5">
-        <f>AP5&amp;IF(AND(AP5&lt;&gt;"",J5&lt;&gt;""),", ","")&amp;IF(J5&lt;&gt;"",J5,"")</f>
+        <f>  AP5&amp;IF(AND(AP5&lt;&gt;"",J5&lt;&gt;""),", ","")&amp;IF(J5&lt;&gt;"",J5,"") </f>
       </c>
       <c r="AR5">
-        <f>AQ5&amp;IF(AND(AQ5&lt;&gt;"",K5&lt;&gt;""),", ","")&amp;IF(K5&lt;&gt;"",K5,"")</f>
+        <f>  AQ5&amp;IF(AND(AQ5&lt;&gt;"",K5&lt;&gt;""),", ","")&amp;IF(K5&lt;&gt;"",K5,"") </f>
       </c>
       <c r="AS5">
-        <f>AR5&amp;IF(AND(AR5&lt;&gt;"",L5&lt;&gt;""),", ","")&amp;IF(L5&lt;&gt;"",L5,"")</f>
+        <f>  AR5&amp;IF(AND(AR5&lt;&gt;"",L5&lt;&gt;""),", ","")&amp;IF(L5&lt;&gt;"",L5,"") </f>
       </c>
       <c r="AT5">
-        <f>AS5&amp;IF(AND(AS5&lt;&gt;"",M5&lt;&gt;""),", ","")&amp;IF(M5&lt;&gt;"",M5,"")</f>
+        <f>  AS5&amp;IF(AND(AS5&lt;&gt;"",M5&lt;&gt;""),", ","")&amp;IF(M5&lt;&gt;"",M5,"") </f>
       </c>
       <c r="AU5">
-        <f>AT5&amp;IF(AND(AT5&lt;&gt;"",N5&lt;&gt;""),", ","")&amp;IF(N5&lt;&gt;"",N5,"")</f>
+        <f>  AT5&amp;IF(AND(AT5&lt;&gt;"",N5&lt;&gt;""),", ","")&amp;IF(N5&lt;&gt;"",N5,"") </f>
       </c>
       <c r="AV5">
-        <f>AU5&amp;IF(AND(AU5&lt;&gt;"",O5&lt;&gt;""),", ","")&amp;IF(O5&lt;&gt;"",O5,"")</f>
+        <f>  AU5&amp;IF(AND(AU5&lt;&gt;"",O5&lt;&gt;""),", ","")&amp;IF(O5&lt;&gt;"",O5,"") </f>
       </c>
       <c r="AW5">
-        <f>AV5&amp;IF(AND(AV5&lt;&gt;"",P5&lt;&gt;""),", ","")&amp;IF(P5&lt;&gt;"",P5,"")</f>
+        <f>  AV5&amp;IF(AND(AV5&lt;&gt;"",P5&lt;&gt;""),", ","")&amp;IF(P5&lt;&gt;"",P5,"") </f>
       </c>
     </row>
   </sheetData>

--- a/docs/Finance/templates/CompanyCode.xlsx
+++ b/docs/Finance/templates/CompanyCode.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
   <si>
     <t>company_code</t>
   </si>
@@ -36,57 +36,90 @@
     <t>varchar(4), PK, NN</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>varchar(100), NN</t>
   </si>
   <si>
+    <t>Country Id</t>
+  </si>
+  <si>
     <t>country_id</t>
   </si>
   <si>
     <t>varchar(3), NN</t>
   </si>
   <si>
+    <t>Language Id</t>
+  </si>
+  <si>
     <t>language_id</t>
   </si>
   <si>
+    <t>Currency Id</t>
+  </si>
+  <si>
     <t>currency_id</t>
   </si>
   <si>
     <t>varchar(5), NN</t>
   </si>
   <si>
+    <t>Chart of accounts id</t>
+  </si>
+  <si>
     <t>chart_of_accounts_id</t>
   </si>
   <si>
     <t>varchar(4), NN</t>
   </si>
   <si>
+    <t>Fiscal year variant id</t>
+  </si>
+  <si>
     <t>fy_variant_id</t>
   </si>
   <si>
     <t>varchar(2), NN</t>
   </si>
   <si>
+    <t>Posting period variant id</t>
+  </si>
+  <si>
     <t>posting_period_variant_id</t>
   </si>
   <si>
+    <t>User created record</t>
+  </si>
+  <si>
     <t>created_by</t>
   </si>
   <si>
     <t>varchar(20), NN</t>
   </si>
   <si>
+    <t>Timestamp of record create</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>timestamptz, NN</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
+    <t>Timestamp of record update</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -102,6 +135,9 @@
     <t>company_code_id</t>
   </si>
   <si>
+    <t>Ledger Id</t>
+  </si>
+  <si>
     <t>ledger_id</t>
   </si>
   <si>
@@ -126,58 +162,103 @@
     <t>Open period</t>
   </si>
   <si>
+    <t>Account type</t>
+  </si>
+  <si>
     <t>account_type</t>
   </si>
   <si>
     <t>account_type, PK, NN</t>
   </si>
   <si>
+    <t>To account</t>
+  </si>
+  <si>
     <t>to_account</t>
   </si>
   <si>
     <t>varchar(10), PK, NN</t>
   </si>
   <si>
+    <t>From account</t>
+  </si>
+  <si>
     <t>from_account</t>
   </si>
   <si>
     <t>varchar(10), NN</t>
   </si>
   <si>
+    <t>Group 1: From fiscal year</t>
+  </si>
+  <si>
     <t>from_fy1</t>
   </si>
   <si>
     <t>integer, NN</t>
   </si>
   <si>
+    <t>Group 1: From period</t>
+  </si>
+  <si>
     <t>from_period1</t>
   </si>
   <si>
+    <t>Group 1: To fiscal year</t>
+  </si>
+  <si>
     <t>to_fy1</t>
   </si>
   <si>
+    <t>Group 1: To period</t>
+  </si>
+  <si>
     <t>to_period1</t>
   </si>
   <si>
+    <t>Group 2: From fiscal year</t>
+  </si>
+  <si>
     <t>from_fy2</t>
   </si>
   <si>
+    <t>Group 2: From period</t>
+  </si>
+  <si>
     <t>from_period2</t>
   </si>
   <si>
+    <t>Group 2: To fiscal year</t>
+  </si>
+  <si>
     <t>to_fy2</t>
   </si>
   <si>
+    <t>Group 2: To period</t>
+  </si>
+  <si>
     <t>to_period2</t>
   </si>
   <si>
+    <t>Group 3: From fiscal year</t>
+  </si>
+  <si>
     <t>from_fy3</t>
   </si>
   <si>
+    <t>Group 3: From period</t>
+  </si>
+  <si>
     <t>from_period3</t>
   </si>
   <si>
+    <t>Group 3: To fiscal year</t>
+  </si>
+  <si>
     <t>to_fy3</t>
+  </si>
+  <si>
+    <t>Group 3: To period</t>
   </si>
   <si>
     <t>to_period3</t>
@@ -225,7 +306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -280,160 +361,198 @@
         <v>3</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="J4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s" s="0">
+      <c r="G5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="L4" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="M5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Y5&") VALUES ("&AK5&");" ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
-      </c>
-      <c r="Z5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="AA5">
-        <f><![CDATA[  Z5&IF(AND(Z5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="AB5">
-        <f><![CDATA[  AA5&IF(AND(AA5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="AD5">
-        <f><![CDATA[  AC5&IF(AND(AC5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="AE5">
-        <f><![CDATA[  AD5&IF(AND(AD5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="AF5">
-        <f><![CDATA[  AE5&IF(AND(AE5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="AG5">
-        <f><![CDATA[  AF5&IF(AND(AF5<>"",H5<>""),", ","")&IF(H5<>"", "'"&H5&"'" ,"") ]]></f>
-      </c>
-      <c r="AH5">
-        <f><![CDATA[  AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
-      </c>
-      <c r="AI5">
-        <f><![CDATA[  AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="AJ5">
-        <f><![CDATA[  AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
-      </c>
-      <c r="AK5">
-        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"", "'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="I5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="M6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Y6&") VALUES ("&AK6&");" ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",K6<>""),", ","")&IF(K6<>"",""""&K$4&"""","") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",L6<>""),", ","")&IF(L6<>"",""""&L$4&"""","") ]]></f>
+      </c>
+      <c r="Z6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="AA6">
+        <f><![CDATA[  Z6&IF(AND(Z6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="AB6">
+        <f><![CDATA[  AA6&IF(AND(AA6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="AD6">
+        <f><![CDATA[  AC6&IF(AND(AC6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="AE6">
+        <f><![CDATA[  AD6&IF(AND(AD6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="AF6">
+        <f><![CDATA[  AE6&IF(AND(AE6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="AG6">
+        <f><![CDATA[  AF6&IF(AND(AF6<>"",H6<>""),", ","")&IF(H6<>"", "'"&H6&"'" ,"") ]]></f>
+      </c>
+      <c r="AH6">
+        <f><![CDATA[  AG6&IF(AND(AG6<>"",I6<>""),", ","")&IF(I6<>"", "'"&I6&"'" ,"") ]]></f>
+      </c>
+      <c r="AI6">
+        <f><![CDATA[  AH6&IF(AND(AH6<>"",J6<>""),", ","")&IF(J6<>"", "'"&TEXT(J6,"YYYY-MM-DD")&" "&TEXT(J6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="AJ6">
+        <f><![CDATA[  AI6&IF(AND(AI6<>"",K6<>""),", ","")&IF(K6<>"", "'"&K6&"'" ,"") ]]></f>
+      </c>
+      <c r="AK6">
+        <f><![CDATA[  AJ6&IF(AND(AJ6<>"",L6<>""),", ","")&IF(L6<>"", "'"&TEXT(L6,"YYYY-MM-DD")&" "&TEXT(L6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -443,7 +562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -480,88 +599,108 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>20</v>
-      </c>
       <c r="E3" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -571,7 +710,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -608,88 +747,108 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -699,7 +858,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -736,88 +895,108 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -827,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -838,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -894,208 +1073,258 @@
         <v>3</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="Q5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AG5&") VALUES ("&AW5&");" ]]></f>
-      </c>
-      <c r="R5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="Z5">
-        <f><![CDATA[  Y5&IF(AND(Y5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="AA5">
-        <f><![CDATA[  Z5&IF(AND(Z5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="AB5">
-        <f><![CDATA[  AA5&IF(AND(AA5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
-      </c>
-      <c r="AD5">
-        <f><![CDATA[  AC5&IF(AND(AC5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
-      </c>
-      <c r="AE5">
-        <f><![CDATA[  AD5&IF(AND(AD5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","") ]]></f>
-      </c>
-      <c r="AF5">
-        <f><![CDATA[  AE5&IF(AND(AE5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","") ]]></f>
-      </c>
-      <c r="AG5">
-        <f><![CDATA[  AF5&IF(AND(AF5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","") ]]></f>
-      </c>
-      <c r="AH5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="AI5">
-        <f><![CDATA[  AH5&IF(AND(AH5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="AJ5">
-        <f><![CDATA[  AI5&IF(AND(AI5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="AK5">
-        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="AL5">
-        <f>  AK5&amp;IF(AND(AK5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"") </f>
-      </c>
-      <c r="AM5">
-        <f>  AL5&amp;IF(AND(AL5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"") </f>
-      </c>
-      <c r="AN5">
-        <f>  AM5&amp;IF(AND(AM5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"") </f>
-      </c>
-      <c r="AO5">
-        <f>  AN5&amp;IF(AND(AN5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"") </f>
-      </c>
-      <c r="AP5">
-        <f>  AO5&amp;IF(AND(AO5&lt;&gt;"",I5&lt;&gt;""),", ","")&amp;IF(I5&lt;&gt;"",I5,"") </f>
-      </c>
-      <c r="AQ5">
-        <f>  AP5&amp;IF(AND(AP5&lt;&gt;"",J5&lt;&gt;""),", ","")&amp;IF(J5&lt;&gt;"",J5,"") </f>
-      </c>
-      <c r="AR5">
-        <f>  AQ5&amp;IF(AND(AQ5&lt;&gt;"",K5&lt;&gt;""),", ","")&amp;IF(K5&lt;&gt;"",K5,"") </f>
-      </c>
-      <c r="AS5">
-        <f>  AR5&amp;IF(AND(AR5&lt;&gt;"",L5&lt;&gt;""),", ","")&amp;IF(L5&lt;&gt;"",L5,"") </f>
-      </c>
-      <c r="AT5">
-        <f>  AS5&amp;IF(AND(AS5&lt;&gt;"",M5&lt;&gt;""),", ","")&amp;IF(M5&lt;&gt;"",M5,"") </f>
-      </c>
-      <c r="AU5">
-        <f>  AT5&amp;IF(AND(AT5&lt;&gt;"",N5&lt;&gt;""),", ","")&amp;IF(N5&lt;&gt;"",N5,"") </f>
-      </c>
-      <c r="AV5">
-        <f>  AU5&amp;IF(AND(AU5&lt;&gt;"",O5&lt;&gt;""),", ","")&amp;IF(O5&lt;&gt;"",O5,"") </f>
-      </c>
-      <c r="AW5">
-        <f>  AV5&amp;IF(AND(AV5&lt;&gt;"",P5&lt;&gt;""),", ","")&amp;IF(P5&lt;&gt;"",P5,"") </f>
+      <c r="B5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="Q6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&AG6&") VALUES ("&AW6&");" ]]></f>
+      </c>
+      <c r="R6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="Z6">
+        <f><![CDATA[  Y6&IF(AND(Y6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="AA6">
+        <f><![CDATA[  Z6&IF(AND(Z6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="AB6">
+        <f><![CDATA[  AA6&IF(AND(AA6<>"",K6<>""),", ","")&IF(K6<>"",""""&K$4&"""","") ]]></f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",L6<>""),", ","")&IF(L6<>"",""""&L$4&"""","") ]]></f>
+      </c>
+      <c r="AD6">
+        <f><![CDATA[  AC6&IF(AND(AC6<>"",M6<>""),", ","")&IF(M6<>"",""""&M$4&"""","") ]]></f>
+      </c>
+      <c r="AE6">
+        <f><![CDATA[  AD6&IF(AND(AD6<>"",N6<>""),", ","")&IF(N6<>"",""""&N$4&"""","") ]]></f>
+      </c>
+      <c r="AF6">
+        <f><![CDATA[  AE6&IF(AND(AE6<>"",O6<>""),", ","")&IF(O6<>"",""""&O$4&"""","") ]]></f>
+      </c>
+      <c r="AG6">
+        <f><![CDATA[  AF6&IF(AND(AF6<>"",P6<>""),", ","")&IF(P6<>"",""""&P$4&"""","") ]]></f>
+      </c>
+      <c r="AH6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="AI6">
+        <f><![CDATA[  AH6&IF(AND(AH6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="AJ6">
+        <f><![CDATA[  AI6&IF(AND(AI6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="AK6">
+        <f><![CDATA[  AJ6&IF(AND(AJ6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="AL6">
+        <f>  AK6&amp;IF(AND(AK6&lt;&gt;"",E6&lt;&gt;""),", ","")&amp;IF(E6&lt;&gt;"",E6,"") </f>
+      </c>
+      <c r="AM6">
+        <f>  AL6&amp;IF(AND(AL6&lt;&gt;"",F6&lt;&gt;""),", ","")&amp;IF(F6&lt;&gt;"",F6,"") </f>
+      </c>
+      <c r="AN6">
+        <f>  AM6&amp;IF(AND(AM6&lt;&gt;"",G6&lt;&gt;""),", ","")&amp;IF(G6&lt;&gt;"",G6,"") </f>
+      </c>
+      <c r="AO6">
+        <f>  AN6&amp;IF(AND(AN6&lt;&gt;"",H6&lt;&gt;""),", ","")&amp;IF(H6&lt;&gt;"",H6,"") </f>
+      </c>
+      <c r="AP6">
+        <f>  AO6&amp;IF(AND(AO6&lt;&gt;"",I6&lt;&gt;""),", ","")&amp;IF(I6&lt;&gt;"",I6,"") </f>
+      </c>
+      <c r="AQ6">
+        <f>  AP6&amp;IF(AND(AP6&lt;&gt;"",J6&lt;&gt;""),", ","")&amp;IF(J6&lt;&gt;"",J6,"") </f>
+      </c>
+      <c r="AR6">
+        <f>  AQ6&amp;IF(AND(AQ6&lt;&gt;"",K6&lt;&gt;""),", ","")&amp;IF(K6&lt;&gt;"",K6,"") </f>
+      </c>
+      <c r="AS6">
+        <f>  AR6&amp;IF(AND(AR6&lt;&gt;"",L6&lt;&gt;""),", ","")&amp;IF(L6&lt;&gt;"",L6,"") </f>
+      </c>
+      <c r="AT6">
+        <f>  AS6&amp;IF(AND(AS6&lt;&gt;"",M6&lt;&gt;""),", ","")&amp;IF(M6&lt;&gt;"",M6,"") </f>
+      </c>
+      <c r="AU6">
+        <f>  AT6&amp;IF(AND(AT6&lt;&gt;"",N6&lt;&gt;""),", ","")&amp;IF(N6&lt;&gt;"",N6,"") </f>
+      </c>
+      <c r="AV6">
+        <f>  AU6&amp;IF(AND(AU6&lt;&gt;"",O6&lt;&gt;""),", ","")&amp;IF(O6&lt;&gt;"",O6,"") </f>
+      </c>
+      <c r="AW6">
+        <f>  AV6&amp;IF(AND(AV6&lt;&gt;"",P6&lt;&gt;""),", ","")&amp;IF(P6&lt;&gt;"",P6,"") </f>
       </c>
     </row>
   </sheetData>
